--- a/excelFiles/User.xlsx
+++ b/excelFiles/User.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECNU\J2EE\DemoWork\data-manage-system-backend\excelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\IdeaProjects\data-manage-system\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9798F615-620E-47FA-8D8B-44C22A24B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C2BB93-A926-49A5-ABAC-AA1E1E15584E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="312" yWindow="312" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,33 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>id</t>
+    <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username</t>
+    <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
+    <t>电子邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email</t>
+    <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
+    <t>2739967118@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +64,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -92,14 +92,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,15 +380,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,19 +405,42 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10185101253</v>
+      </c>
+      <c r="B2">
+        <v>15612</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="D2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10185101258</v>
+      </c>
+      <c r="B3">
+        <v>15612</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DD6FF381-4E67-41A6-A764-9B3F21837219}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{CC93CD9D-81FB-44D9-91E8-3AB6B7853758}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>